--- a/resclient.xlsx
+++ b/resclient.xlsx
@@ -488,43 +488,43 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Сильфон 238НБ-1008088-01</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>238НБ-1008088-01</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>011008088238НБ</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>236БЕ-1008088-СПЕЦМАШ</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Сильфон (внутр.D= 50мм, фл.2отв., увел.ресурс) (ЗИЛ ЛИАЗ-5256 ЛАЗ-5252 4207 5207 УРАЛ-4320 НЕМАН)</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1008088236БЕСПЕЦМАШ</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1655</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>238НБ-1008088-СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Сильфон (внутр.D= 60мм, фл.3отв., увел.ресурс) (ЛИАЗ, КРАЛ, КРАЗ, МОАЗ, МЗКТ)</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>1008088238НБСПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>1875</v>
+      </c>
+      <c r="I2" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -603,117 +603,125 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>РК АРС 236-1601000-02</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>236-1601000-02</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>021601000236</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>236-1601000-02-СПЕЦМАШ</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>Ремкомплект АРС (автоматической регулировки сцепления)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>021601000236СПЕЦМАШ</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="G5" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H5" s="2" t="n">
         <v>315</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Цилиндр сцепления подпедальный 6430-1602510 СПЕЦМАШ</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>6430-1602510</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>16025106430</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>260-1602510</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Главный цилиндр сцепления КрАЗ</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1602510260</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2735</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6430-1602510-СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Цилиндр подпедальный сцепления (без штока)</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>16025106430СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>1295</v>
+      </c>
+      <c r="I6" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>Т0000000649 | Тяга КПП (средняя) 642208-1703490 (235мм)</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>64221-1703425</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Колпак защитный (Чехол рычага КПП гофра) для МАЗ</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>170342564221</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>69.23076923076923</v>
-      </c>
-      <c r="H7" t="n">
-        <v>225</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>642208-1703490</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1703490642208</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>642208-1703490-01-СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Тяга кулисы в сборе с пальцами L-235 мм (не разборный наконечник)</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>011703490642208СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>457</v>
+      </c>
+      <c r="I7" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -759,191 +767,207 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>Палец серьги передн. ст-ра 6430-2906026 СПЕЦМАШ</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>6430-2906026</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>29060266430</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>6430-2906026-СПЕЦМАШ</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>Палец серьги стабилизатора, ТЕФЛОН, для МАЗ (упак. 10 шт)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>29060266430СПЕЦМАШ</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="G9" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H9" s="2" t="n">
         <v>255</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>Т0000001723 | Втулка шкворня 64221-3001016 СПЕЦМАШ</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>64221-3001016</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>300101664221</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5320-3001016-СМ</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Втулка шкворня 5320, ЗИЛ-4331</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>30010165320СМ</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>485</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>64221-3001016-СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Втулка шкворня поворотного кулака цилиндр.(H=6 см,БРОНЗОВАЯ БИМЕТАЛЛИЧЕСКАЯ,ВЕРТ.НАРЕЗКА) (упак 4 шт)</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>300101664221СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>355</v>
+      </c>
+      <c r="I10" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>Ступица задняя 10 шп. 54326-3104015-10-Р</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>54326-3104015-10-Р</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>10310401554326Р</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>93866-3104015-СПЕЦМАШ</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Ступица полуприцепа МАЗ (10 шпилек, голая) под АВС усил.ребрами жесткости</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>310401593866СПЕЦМАШ</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="H11" t="n">
-        <v>7975</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>54326-3104015-10-СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>Ступица задняя (на 10 шпилек, голая)</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>10310401554326СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>6795</v>
+      </c>
+      <c r="I11" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>900735      | Болт Евро (105мм) 54321-3104050 СМ Тефлон</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>54321-3104050</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>310405054321</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4370-3104050-01-СПЕЦМАШ</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Болт ступицы (Еврошпилька М20х1,5 L-82 мм) Зубренок заднего колеса, ТЕФЛОН (упак. 10 шт)</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0131040504370СПЕЦМАШ</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="H12" t="n">
-        <v>129</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>54321-3104050-01-СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Болт ступицы (Еврошпилька М22х1,5 L-105 мм) МАЗ, ТЕФЛОН (упак. 10 шт)</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>01310405054321СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="I12" s="2" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>Вал кард. рул. нижн. 5336-3444050 СПЕЦМАШ</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>5336-3444050</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>34440505336</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>5336-3444050-11-СПЕЦМАШ</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>Вал нижний рулевой в сборе (установочная длинна 548 мм)</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>1134440505336СПЕЦМАШ</t>
         </is>
       </c>
-      <c r="G13" t="n">
-        <v>79.53488372093024</v>
-      </c>
-      <c r="H13" t="n">
+      <c r="G13" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H13" s="2" t="n">
         <v>6195</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1030,166 +1054,166 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>Ролик натяжной компрессора 236-3509307</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>236-3509307</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>2363509307</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="2" t="inlineStr">
         <is>
           <t>236-3509307-СПЕЦМАШ</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>Ремкомплект устройства натяжного компрессора (ВСЕ КРОМЕ КРОНШТЕЙНА)</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>2363509307СПЕЦМАШ</t>
         </is>
       </c>
-      <c r="G16" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="H16" t="n">
+      <c r="G16" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H16" s="2" t="n">
         <v>1555</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>Кулак разж. задн. лев. (515) 5440-3502111 СПЕЦМАШ</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>5440-3502111</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>35021115440</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>5440-3502111-010-СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Кулак разжимной задний левый (эвольвентный шлиц) </t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>01035021115440СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>2375</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Кулак разж. задн. лев. (540) 54326-3502111</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>54326-3502111</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>350211154326</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
         <is>
           <t>54326-3502111-СПЕЦМАШ</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>Кулак разжимной (L=546 мм, под рычаг с широким шлицем) левый, с прорезью под АБС</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>350211154326СПЕЦМАШ</t>
         </is>
       </c>
-      <c r="G17" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="H17" t="n">
+      <c r="G18" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H18" s="2" t="n">
         <v>2775</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I18" s="2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Кулак разж. задн. лев. (540) 54326-3502111</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>54326-3502111</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>350211154326</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>54326-3502111-СПЕЦМАШ</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Кулак разжимной (L=546 мм, под рычаг с широким шлицем) левый, с прорезью под АБС</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>350211154326СПЕЦМАШ</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="H18" t="n">
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Кулак разж. задн. пр. (540) 54326-3502110</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>54326-3502110</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>350211054326</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>54326-3502110-СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>Кулак разжимной (L=546 мм, под рычаг с широким шлицем) правый, с прорезью под АБС</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>350211054326СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H19" s="2" t="n">
         <v>2775</v>
       </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Кулак разж. задн. пр. (540) 54326-3502110</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>54326-3502110</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>350211054326</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>54326-3502110-СПЕЦМАШ</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Кулак разжимной (L=546 мм, под рычаг с широким шлицем) правый, с прорезью под АБС</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>350211054326СПЕЦМАШ</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2775</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="I19" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1276,35 +1300,43 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>Воздухораспред. тормозов п/пр 9758-3531010-01-СПЕЦМАШ</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>11-3531010-70-СПЕЦМАШ</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>9758-3531010-01-СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0135310109758СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>9758-3531010-СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
         <is>
           <t>Воздухораспределитель тормозов полуприцепа 2-х проводный, ЗИЛ, МАЗ</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>11353101070СПЕЦМАШ</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>81</v>
-      </c>
-      <c r="H22" t="n">
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>35310109758СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H22" s="2" t="n">
         <v>3875</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,183 +1382,207 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>Энергоаккумулятор ТИП-24/30 5336-3519200 СМ МАТРЕШКА</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>5336-3509012</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Компрессор ЗИЛ, МАЗ, КРАЗ (210 л/мин) В СБОРЕ СО ШКИВОМ (РБ)</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>35090125336</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>69.95454545454545</v>
-      </c>
-      <c r="H24" t="n">
-        <v>13041</v>
-      </c>
-      <c r="I24" t="n">
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>5336-3519200</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>35192005336</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>5336-3519200-СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>Камера тормозная задняя (энергоаккумулятор Тип 24/30, МАТРЕШКА, С АВТОМАТОМ РАСТОРМАЖИВАНИЯ)</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>35192005336СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>5775</v>
+      </c>
+      <c r="I24" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="2" t="inlineStr">
         <is>
           <t>Т0000004982 | Барабан тормозной передний 6430-3501070 СПЕЦМАШ</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>6430-3501070</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="2" t="inlineStr">
         <is>
           <t>35010706430</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" s="2" t="inlineStr">
         <is>
           <t>6430-3501070-СПЕЦМАШ</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" s="2" t="inlineStr">
         <is>
           <t>Барабан тормозной (10 отв. передний) МАЗ-6430 5440 АМАЗ: МАЗ-103 МАЗ-104 МАЗ-105 МАЗ-107 МАЗ-152</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" s="2" t="inlineStr">
         <is>
           <t>35010706430СПЕЦМАШ</t>
         </is>
       </c>
-      <c r="G25" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="H25" t="n">
+      <c r="G25" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H25" s="2" t="n">
         <v>7735</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>Стакан разжимного кулака в сборе 103-3502018-10 СПЕЦМАШ</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>103-3502018-10</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>101033502018</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>64221-3502018-СПЕЦМАШ</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Стакан МАЗ разжимного кулака в сборе (с ШС-40) МАЗ семейства 6422</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>350201864221СПЕЦМАШ</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>69.88505747126436</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1375</v>
-      </c>
-      <c r="I26" t="n">
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>103-3502018-10-СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Стакан МАЗ-5440, 6430 разжимного кулака в сборе (с ШС-42) </t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>101033502018СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>1575</v>
+      </c>
+      <c r="I26" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="2" t="inlineStr">
         <is>
           <t>Т0000003772 | Суппорт задний 5440-3502015-20 СПЕЦМАШ</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>5440-3502015-20</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>2035020155440</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
         <is>
           <t>5440-3502015-20-СПЕЦМАШ</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E27" s="2" t="inlineStr">
         <is>
           <t>Суппорт заднего тормоза (зад/средн. моста) н/обр., для МАЗ</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" s="2" t="inlineStr">
         <is>
           <t>2035020155440СПЕЦМАШ</t>
         </is>
       </c>
-      <c r="G27" t="n">
-        <v>86.08695652173914</v>
-      </c>
-      <c r="H27" t="n">
+      <c r="G27" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H27" s="2" t="n">
         <v>4995</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>900228      | Разъем Евро (4 конт, углов.) 1845-967325-4</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1845-967325-4-СПЕЦМАШ</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Штекер байонетный угловой (на 4 провода) (упак. 4 шт)</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>18454967325СПЕЦМАШ</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>68.82352941176471</v>
-      </c>
-      <c r="H28" t="n">
-        <v>315</v>
-      </c>
-      <c r="I28" t="n">
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>1845-967325-4</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>18454967325</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>1845-967325-0-СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>Штекер байонетный прямой (на 4 провода) (упак. 4 шт)</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>01845967325СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>295</v>
+      </c>
+      <c r="I28" s="2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1564,35 +1620,43 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>Кабель электрический ПС-325 64221-3723022 СПЕЦМАШ</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>64221-3723022</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>372302264221</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>64221-3723022-СПЕЦМАШ</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E30" s="2" t="inlineStr">
         <is>
           <t>Кабель электрический витой L= 6 м. С разъемами, ЕВРО, внутр. жилы-МЕДЬ</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" s="2" t="inlineStr">
         <is>
           <t>372302264221СПЕЦМАШ</t>
         </is>
       </c>
-      <c r="G30" t="n">
-        <v>85.71428571428571</v>
-      </c>
-      <c r="H30" t="n">
+      <c r="G30" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H30" s="2" t="n">
         <v>1575</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1712,43 +1776,43 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="2" t="inlineStr">
         <is>
           <t>Клапан встряхивания 5516-8607010</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>5516-8607010</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" s="2" t="inlineStr">
         <is>
           <t>55168607010</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>5551-8607010-СПЕЦМАШ</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Клапан управления механизмом подъема платформы L=250 мм, для МАЗ</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>55518607010СПЕЦМАШ</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="H34" t="n">
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>5516-8607010-СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>Клапан управления механизмом подъема платформы L=350 мм, для МАЗ</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>55168607010СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H34" s="2" t="n">
         <v>2995</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1827,43 +1891,43 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="2" t="inlineStr">
         <is>
           <t>Палец заднего ушка 500А-2912478 СМ Тефлон</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="2" t="inlineStr">
         <is>
           <t>500А-2912478</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" s="2" t="inlineStr">
         <is>
           <t>2912478500А</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>54327-2912478-79-СПЕЦМАШ</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Болт М30х2х200 мм шарнира полурессоры в сборе с гайкой, ТЕФЛОН</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>29124785432779СПЕЦМАШ</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="H37" t="n">
-        <v>495</v>
-      </c>
-      <c r="I37" t="n">
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>500А-2912478-СПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>Палец ушка задней рессоры ТЕФЛОН МАЗ (L=50х175 мм) Соотв.ТУ по тверд. и качеству (упак. 2 шт)</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>2912478500АСПЕЦМАШ</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>895</v>
+      </c>
+      <c r="I37" s="2" t="n">
         <v>4</v>
       </c>
     </row>
